--- a/datos/empleo_genero.xlsx
+++ b/datos/empleo_genero.xlsx
@@ -1106,16 +1106,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="S439" sqref="S439"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="15" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="15" width="18.42578125" customWidth="1"/>
     <col min="16" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>

--- a/datos/empleo_genero.xlsx
+++ b/datos/empleo_genero.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AZ$461</definedName>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15254" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15661" uniqueCount="217">
   <si>
     <t>variable</t>
   </si>
@@ -785,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -808,17 +809,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1121,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection sqref="A1:AZ461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73978,4 +73993,2572 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1982</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1983</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1984</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1985</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1986</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1987</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1988</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1989</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1990</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1991</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1992</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1993</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1994</v>
+      </c>
+      <c r="O1" s="2">
+        <v>1995</v>
+      </c>
+      <c r="P1" s="2">
+        <v>1996</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>1997</v>
+      </c>
+      <c r="R1" s="2">
+        <v>1998</v>
+      </c>
+      <c r="S1" s="2">
+        <v>1999</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>205599999427795</v>
+      </c>
+      <c r="L2" s="1">
+        <v>246000003814697</v>
+      </c>
+      <c r="M2" s="1">
+        <v>320499992370605</v>
+      </c>
+      <c r="N2" s="1">
+        <v>247499990463257</v>
+      </c>
+      <c r="O2" s="1">
+        <v>23510000705719</v>
+      </c>
+      <c r="P2" s="1">
+        <v>244899988174438</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>248000001907349</v>
+      </c>
+      <c r="R2" s="1">
+        <v>243700003623962</v>
+      </c>
+      <c r="S2" s="1">
+        <v>250999999046326</v>
+      </c>
+      <c r="T2" s="1">
+        <v>297000002861023</v>
+      </c>
+      <c r="U2" s="1">
+        <v>247000002861023</v>
+      </c>
+      <c r="V2" s="1">
+        <v>191499996185303</v>
+      </c>
+      <c r="W2" s="1">
+        <v>217799997329712</v>
+      </c>
+      <c r="X2" s="1">
+        <v>236899995803833</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>224900007247925</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>236100006103516</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>255999994277954</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>284999990463257</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>297399997711182</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>290000009536743</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>262100005149841</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>26340000629425</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>244400000572205</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>226200008392334</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>232999992370605</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>237800002098084</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>245300006866455</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>246199989318848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>676000022888184</v>
+      </c>
+      <c r="L3" s="1">
+        <v>748099994659424</v>
+      </c>
+      <c r="M3" s="1">
+        <v>749200010299683</v>
+      </c>
+      <c r="N3" s="1">
+        <v>633799982070923</v>
+      </c>
+      <c r="O3" s="1">
+        <v>705299997329712</v>
+      </c>
+      <c r="P3" s="1">
+        <v>616800022125244</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>60479998588562</v>
+      </c>
+      <c r="R3" s="1">
+        <v>607399988174438</v>
+      </c>
+      <c r="S3" s="1">
+        <v>589300012588501</v>
+      </c>
+      <c r="T3" s="1">
+        <v>606300020217896</v>
+      </c>
+      <c r="U3" s="1">
+        <v>581599998474121</v>
+      </c>
+      <c r="V3" s="1">
+        <v>509499979019165</v>
+      </c>
+      <c r="W3" s="1">
+        <v>48439998626709</v>
+      </c>
+      <c r="X3" s="1">
+        <v>513299989700317</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>513399982452393</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>527099990844727</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>574900007247925</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>573999977111816</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>54689998626709</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>558900022506714</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>573299980163574</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>486600017547607</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>481899976730347</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>429300022125244</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>446299982070923</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>461399984359741</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>480800008773804</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>481500005722046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="1">
+        <v>112699997425079</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>115900003910065</v>
+      </c>
+      <c r="R5" s="1">
+        <v>113800001144409</v>
+      </c>
+      <c r="S5" s="1">
+        <v>110099995136261</v>
+      </c>
+      <c r="T5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="1">
+        <v>121700000762939</v>
+      </c>
+      <c r="V5" s="1">
+        <v>134599995613098</v>
+      </c>
+      <c r="W5" s="1">
+        <v>168599998950958</v>
+      </c>
+      <c r="X5" s="1">
+        <v>185599994659424</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>165600001811981</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>143400001525879</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>159200000762939</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>176199996471405</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>180599999427795</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>187399995326996</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>197670001983643</v>
+      </c>
+      <c r="L6" s="1">
+        <v>189230003356934</v>
+      </c>
+      <c r="M6" s="1">
+        <v>161660003662109</v>
+      </c>
+      <c r="N6" s="1">
+        <v>145220003128052</v>
+      </c>
+      <c r="O6" s="1">
+        <v>150249996185303</v>
+      </c>
+      <c r="P6" s="1">
+        <v>125200004577637</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>116549997329712</v>
+      </c>
+      <c r="R6" s="1">
+        <v>107700004577637</v>
+      </c>
+      <c r="S6" s="1">
+        <v>10831000328064</v>
+      </c>
+      <c r="T6" s="1">
+        <v>103190002441406</v>
+      </c>
+      <c r="U6" s="1">
+        <v>104230003356934</v>
+      </c>
+      <c r="V6" s="1">
+        <v>939700031280518</v>
+      </c>
+      <c r="W6" s="1">
+        <v>111730003356934</v>
+      </c>
+      <c r="X6" s="1">
+        <v>107880001068115</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>106040000915527</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>106040000915527</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>10371000289917</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>101660003662109</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>962199974060059</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>93769998550415</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>995400047302246</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>946199989318848</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>891800022125244</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>832600021362305</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>85939998626709</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>886100006103516</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>911299991607666</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>897500038146973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>411230010986328</v>
+      </c>
+      <c r="L7" s="1">
+        <v>410540008544922</v>
+      </c>
+      <c r="M7" s="1">
+        <v>383709983825684</v>
+      </c>
+      <c r="N7" s="1">
+        <v>378359985351563</v>
+      </c>
+      <c r="O7" s="1">
+        <v>348160018920898</v>
+      </c>
+      <c r="P7" s="1">
+        <v>333870010375977</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>349620018005371</v>
+      </c>
+      <c r="R7" s="1">
+        <v>348499984741211</v>
+      </c>
+      <c r="S7" s="1">
+        <v>327379989624023</v>
+      </c>
+      <c r="T7" s="1">
+        <v>315069999694824</v>
+      </c>
+      <c r="U7" s="1">
+        <v>303229999542236</v>
+      </c>
+      <c r="V7" s="1">
+        <v>279050006866455</v>
+      </c>
+      <c r="W7" s="1">
+        <v>289500007629395</v>
+      </c>
+      <c r="X7" s="1">
+        <v>307880001068115</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>31798999786377</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>325349998474121</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>329300003051758</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>332939987182617</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>325120010375977</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>327229995727539</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>334469985961914</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>33265998840332</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>340970001220703</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>348230018615723</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>338120002746582</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>327809982299805</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>318320007324219</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>318239994049072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>800970001220703</v>
+      </c>
+      <c r="L8" s="1">
+        <v>80754997253418</v>
+      </c>
+      <c r="M8" s="1">
+        <v>835370025634766</v>
+      </c>
+      <c r="N8" s="1">
+        <v>852379989624023</v>
+      </c>
+      <c r="O8" s="1">
+        <v>846119995117188</v>
+      </c>
+      <c r="P8" s="1">
+        <v>872590026855469</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>88088996887207</v>
+      </c>
+      <c r="R8">
+        <v>89</v>
+      </c>
+      <c r="S8" s="1">
+        <v>889339981079102</v>
+      </c>
+      <c r="T8" s="1">
+        <v>894449996948242</v>
+      </c>
+      <c r="U8" s="1">
+        <v>892799987792969</v>
+      </c>
+      <c r="V8" s="1">
+        <v>901320037841797</v>
+      </c>
+      <c r="W8" s="1">
+        <v>878539962768555</v>
+      </c>
+      <c r="X8" s="1">
+        <v>882460021972656</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>88677001953125</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>889089965820313</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>892099990844727</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>894869995117188</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>899860000610352</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>902429962158203</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>897620010375977</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>902539978027344</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>908570022583008</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>915199966430664</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>913349990844727</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>911060028076172</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>908710021972656</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>910100021362305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>584049987792969</v>
+      </c>
+      <c r="L9" s="1">
+        <v>584910011291504</v>
+      </c>
+      <c r="M9" s="1">
+        <v>61076000213623</v>
+      </c>
+      <c r="N9" s="1">
+        <v>615730018615723</v>
+      </c>
+      <c r="O9" s="1">
+        <v>643960037231445</v>
+      </c>
+      <c r="P9" s="1">
+        <v>654860000610352</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>638790016174316</v>
+      </c>
+      <c r="R9" s="1">
+        <v>640120010375977</v>
+      </c>
+      <c r="S9" s="1">
+        <v>66161003112793</v>
+      </c>
+      <c r="T9" s="1">
+        <v>675139999389648</v>
+      </c>
+      <c r="U9" s="1">
+        <v>684599990844727</v>
+      </c>
+      <c r="V9" s="1">
+        <v>707490005493164</v>
+      </c>
+      <c r="W9" s="1">
+        <v>693639984130859</v>
+      </c>
+      <c r="X9" s="1">
+        <v>673560028076172</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>665449981689453</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>660309982299805</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>654769973754883</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>649440002441406</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>65681999206543</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>654029998779297</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>656800003051758</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>658929977416992</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>650179977416992</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>643610000610352</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>657949981689453</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>670299987792969</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>680770034790039</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>680869979858398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="1">
+        <v>620499992370605</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>603499984741211</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>573899993896484</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>516699981689453</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>502900009155273</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>486100006103516</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>480499992370605</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>464700012207031</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>474300003051758</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="1">
+        <v>573199996948242</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>558800010681152</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>53310001373291</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>48689998626709</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>487999992370605</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>471800003051758</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>468800010681152</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>470200004577637</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>482999992370605</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1">
+        <v>247250003814697</v>
+      </c>
+      <c r="L13" s="1">
+        <v>229990005493164</v>
+      </c>
+      <c r="M13" s="1">
+        <v>233889999389648</v>
+      </c>
+      <c r="N13" s="1">
+        <v>228509998321533</v>
+      </c>
+      <c r="O13" s="1">
+        <v>206669998168945</v>
+      </c>
+      <c r="P13" s="1">
+        <v>204720001220703</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>201490001678467</v>
+      </c>
+      <c r="R13" s="1">
+        <v>199340000152588</v>
+      </c>
+      <c r="S13" s="1">
+        <v>196159992218018</v>
+      </c>
+      <c r="T13" s="1">
+        <v>187940006256104</v>
+      </c>
+      <c r="U13" s="1">
+        <v>196509990692139</v>
+      </c>
+      <c r="V13" s="1">
+        <v>183889999389648</v>
+      </c>
+      <c r="W13" s="1">
+        <v>165659999847412</v>
+      </c>
+      <c r="X13" s="1">
+        <v>166079998016357</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>165839996337891</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>157959995269775</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>150559997558594</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>151190004348755</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>157030000686646</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>151829996109009</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>148760004043579</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>152229995727539</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>158649997711182</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>16242000579834</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>168309993743896</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>174500007629395</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>179950008392334</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>179969997406006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>231380004882813</v>
+      </c>
+      <c r="L14" s="1">
+        <v>231730003356934</v>
+      </c>
+      <c r="M14" s="1">
+        <v>245900001525879</v>
+      </c>
+      <c r="N14" s="1">
+        <v>236800003051758</v>
+      </c>
+      <c r="O14" s="1">
+        <v>240480003356934</v>
+      </c>
+      <c r="P14" s="1">
+        <v>244640007019043</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>234220008850098</v>
+      </c>
+      <c r="R14" s="1">
+        <v>233759994506836</v>
+      </c>
+      <c r="S14" s="1">
+        <v>231900005340576</v>
+      </c>
+      <c r="T14" s="1">
+        <v>236749992370605</v>
+      </c>
+      <c r="U14" s="1">
+        <v>248320007324219</v>
+      </c>
+      <c r="V14" s="1">
+        <v>270319995880127</v>
+      </c>
+      <c r="W14" s="1">
+        <v>237849998474121</v>
+      </c>
+      <c r="X14" s="1">
+        <v>228020000457764</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>227290000915527</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>21621000289917</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>203759994506836</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>205669994354248</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>210429992675781</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>203360004425049</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>199440002441406</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>206849994659424</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>21363000869751</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>218589992523193</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>222350006103516</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>22693000793457</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>229810009002686</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>229839992523193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="1">
+        <v>580663324746861</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>590354729669062</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>598393257921627</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>595515468426121</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>59687148463151</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>596781042931751</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>594036240656844</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>595417669424688</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>59435378685443</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>593097377524897</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>571152884706508</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" t="s">
+        <v>185</v>
+      </c>
+      <c r="W16" s="1">
+        <v>136899995803833</v>
+      </c>
+      <c r="X16" s="1">
+        <v>674910020828247</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>565520000457764</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>439169979095459</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>442929983139038</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>462610006332397</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>352570009231567</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>37639000415802</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>380139994621277</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>389070010185242</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>391750001907349</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>397149991989136</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="1">
+        <v>129899997711182</v>
+      </c>
+      <c r="W17" s="1">
+        <v>943000030517578</v>
+      </c>
+      <c r="X17" s="1">
+        <v>441130018234253</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>421379995346069</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>290300011634827</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>302379989624023</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>3.24569988250731E+16</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>239529991149902</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>180239999294281</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>185749995708466</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>238940000534058</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>232119989395142</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>232159996032715</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="1">
+        <v>540000009536743</v>
+      </c>
+      <c r="C18" s="1">
+        <v>480000019073486</v>
+      </c>
+      <c r="D18" s="1">
+        <v>419000005722046</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>659999990463257</v>
+      </c>
+      <c r="H18" s="1">
+        <v>719999980926514</v>
+      </c>
+      <c r="I18" s="1">
+        <v>780000019073486</v>
+      </c>
+      <c r="J18" s="1">
+        <v>692999982833862</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1">
+        <v>673000001907349</v>
+      </c>
+      <c r="M18" s="1">
+        <v>126999998092651</v>
+      </c>
+      <c r="N18" s="1">
+        <v>140600004196167</v>
+      </c>
+      <c r="O18" s="1">
+        <v>222999992370605</v>
+      </c>
+      <c r="P18" s="1">
+        <v>193099994659424</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>177999992370605</v>
+      </c>
+      <c r="R18" s="1">
+        <v>141099996566772</v>
+      </c>
+      <c r="S18" s="1">
+        <v>151800003051758</v>
+      </c>
+      <c r="T18" s="1">
+        <v>163799991607666</v>
+      </c>
+      <c r="U18" s="1">
+        <v>171900005340576</v>
+      </c>
+      <c r="V18" s="1">
+        <v>188299999237061</v>
+      </c>
+      <c r="W18" s="1">
+        <v>174799995422363</v>
+      </c>
+      <c r="X18" s="1">
+        <v>157447004318237</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>135213003158569</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>123408002853394</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>9680100440979</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>983129978179932</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>944629955291748</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="1">
+        <v>438000011444092</v>
+      </c>
+      <c r="C19" s="1">
+        <v>385999989509583</v>
+      </c>
+      <c r="D19" s="1">
+        <v>338000011444092</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="1">
+        <v>530000019073486</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>713000011444092</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>61399998664856</v>
+      </c>
+      <c r="M19" t="s">
+        <v>208</v>
+      </c>
+      <c r="N19" s="1">
+        <v>103400001525879</v>
+      </c>
+      <c r="O19" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="1">
+        <v>157299995422363</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>129099998474121</v>
+      </c>
+      <c r="R19" s="1">
+        <v>11710000038147</v>
+      </c>
+      <c r="S19" s="1">
+        <v>132799997329712</v>
+      </c>
+      <c r="T19" s="1">
+        <v>140500001907349</v>
+      </c>
+      <c r="U19" s="1">
+        <v>174099998474121</v>
+      </c>
+      <c r="V19" s="1">
+        <v>201299991607666</v>
+      </c>
+      <c r="W19" s="1">
+        <v>137299995422363</v>
+      </c>
+      <c r="X19" s="1">
+        <v>118341999053955</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>999769973754883</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>83621997833252</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>647469997406006</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>775699996948242</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>751300001144409</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>167361111</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>234186396</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>61111111</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>65972222</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>92486009</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4">
+        <v>11</v>
+      </c>
+      <c r="L23" s="4">
+        <v>12</v>
+      </c>
+      <c r="M23" s="4">
+        <v>13</v>
+      </c>
+      <c r="N23" s="4">
+        <v>14</v>
+      </c>
+      <c r="O23" s="4">
+        <v>15</v>
+      </c>
+      <c r="P23" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>17</v>
+      </c>
+      <c r="R23" s="4">
+        <v>18</v>
+      </c>
+      <c r="S23" s="4">
+        <v>19</v>
+      </c>
+      <c r="T23" s="4">
+        <v>20</v>
+      </c>
+      <c r="U23" s="4">
+        <v>21</v>
+      </c>
+      <c r="V23" s="4">
+        <v>22</v>
+      </c>
+      <c r="W23" s="4">
+        <v>23</v>
+      </c>
+      <c r="X23" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>29</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>30</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>31</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>32</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>33</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>34</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>35</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>36</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>37</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>